--- a/data/trans_orig/PCS12_SP_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>133864</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>113295</v>
+        <v>114870</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>155589</v>
+        <v>155795</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1928838379399687</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.163245936338128</v>
+        <v>0.1655151745723907</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2241871455006922</v>
+        <v>0.2244842046337147</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>122</v>
@@ -765,19 +765,19 @@
         <v>122665</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>103268</v>
+        <v>102666</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>143887</v>
+        <v>142876</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1782018390563362</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1500220975721197</v>
+        <v>0.1491481335592932</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.209031500283105</v>
+        <v>0.2075629881099891</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>253</v>
@@ -786,19 +786,19 @@
         <v>256529</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>226579</v>
+        <v>229765</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>288339</v>
+        <v>285831</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1855729015891716</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1639073288811127</v>
+        <v>0.1662114971099057</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2085842606165096</v>
+        <v>0.2067698749694758</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>261727</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>237493</v>
+        <v>238911</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>289316</v>
+        <v>287896</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3771220942776974</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3422024602766633</v>
+        <v>0.3442463140543283</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4168746764621169</v>
+        <v>0.4148290812638142</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>175</v>
@@ -836,19 +836,19 @@
         <v>170183</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>150315</v>
+        <v>148657</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>192940</v>
+        <v>193173</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2472332117964377</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2183695049116035</v>
+        <v>0.2159610888193895</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2802937060158896</v>
+        <v>0.2806320996159231</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>430</v>
@@ -857,19 +857,19 @@
         <v>431910</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>399006</v>
+        <v>399311</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>466249</v>
+        <v>466668</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3124436155485321</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.288640676481264</v>
+        <v>0.288860937255262</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3372840799967851</v>
+        <v>0.3375871683725714</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>178386</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>154779</v>
+        <v>156420</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>202574</v>
+        <v>201848</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2570360007880536</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2230200035239857</v>
+        <v>0.2253847088830179</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2918879400503716</v>
+        <v>0.2908415468854322</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>210</v>
@@ -907,19 +907,19 @@
         <v>208218</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>183685</v>
+        <v>185220</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>232888</v>
+        <v>233211</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3024883697420303</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2668481481899403</v>
+        <v>0.2690784867486375</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3383278210680368</v>
+        <v>0.3387966210969028</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>385</v>
@@ -928,19 +928,19 @@
         <v>386604</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>357014</v>
+        <v>354102</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>420749</v>
+        <v>418861</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2796691162820152</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2582634475258071</v>
+        <v>0.2561568647926954</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3043692809685559</v>
+        <v>0.3030035950202517</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>120035</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>102982</v>
+        <v>102166</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>138962</v>
+        <v>141757</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1729580669942802</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1483869984359027</v>
+        <v>0.147210412147643</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2002294163108975</v>
+        <v>0.2042573094594781</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>189</v>
@@ -978,19 +978,19 @@
         <v>187284</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>164328</v>
+        <v>167003</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>211476</v>
+        <v>210418</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2720765794051958</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2387273454992207</v>
+        <v>0.2426132604391708</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3072217858301019</v>
+        <v>0.3056843342854718</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>311</v>
@@ -999,19 +999,19 @@
         <v>307319</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>276138</v>
+        <v>277981</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>338800</v>
+        <v>338020</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2223143665802811</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1997582007948152</v>
+        <v>0.2010913924869208</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.245087803178058</v>
+        <v>0.2445232925875071</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>258013</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>232621</v>
+        <v>232032</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>289724</v>
+        <v>286221</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2682602905172168</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2418601718304866</v>
+        <v>0.2412476996095844</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3012314079530912</v>
+        <v>0.2975886157754555</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>162</v>
@@ -1124,19 +1124,19 @@
         <v>172234</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>148323</v>
+        <v>146816</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>198427</v>
+        <v>195853</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1778551484558454</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1531641066634264</v>
+        <v>0.1516076350119701</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2049036082279009</v>
+        <v>0.2022452431327564</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>391</v>
@@ -1145,19 +1145,19 @@
         <v>430246</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>392530</v>
+        <v>396526</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>467742</v>
+        <v>471927</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2229033189001181</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2033628788481219</v>
+        <v>0.2054334737576008</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2423289330265053</v>
+        <v>0.2444971975320456</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>315452</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>286977</v>
+        <v>288812</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>344500</v>
+        <v>349064</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.327981207084867</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2983753214224191</v>
+        <v>0.3002824138546711</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3581830254971981</v>
+        <v>0.3629282999381629</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>203</v>
@@ -1195,19 +1195,19 @@
         <v>211650</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>184750</v>
+        <v>186566</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>237660</v>
+        <v>239464</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2185574457959982</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1907800479944836</v>
+        <v>0.1926549577476712</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2454166149563432</v>
+        <v>0.2472796961500157</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>497</v>
@@ -1216,19 +1216,19 @@
         <v>527102</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>487992</v>
+        <v>489445</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>567306</v>
+        <v>566562</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2730824444498148</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2528201725743479</v>
+        <v>0.2535732578510607</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2939116699802666</v>
+        <v>0.2935259360920352</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>251573</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>226528</v>
+        <v>224934</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>279426</v>
+        <v>278070</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2615647951871485</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2355251891926561</v>
+        <v>0.2338682476294569</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2905243929178254</v>
+        <v>0.2891143412602373</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>299</v>
@@ -1266,19 +1266,19 @@
         <v>319915</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>291337</v>
+        <v>289561</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>350417</v>
+        <v>349409</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3303563764419142</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3008459837332695</v>
+        <v>0.299011904184582</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3618537309062751</v>
+        <v>0.3608132505790828</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>538</v>
@@ -1287,19 +1287,19 @@
         <v>571488</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>530984</v>
+        <v>530095</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>611054</v>
+        <v>612083</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2960780731636337</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.275093885582619</v>
+        <v>0.2746334029029956</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3165766157111381</v>
+        <v>0.317109562745442</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>136762</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>117176</v>
+        <v>117228</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>157971</v>
+        <v>159734</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1421937072107677</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1218301645497436</v>
+        <v>0.1218839503026659</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1642448692026893</v>
+        <v>0.1660779301022818</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>244</v>
@@ -1337,19 +1337,19 @@
         <v>264595</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>236425</v>
+        <v>236170</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>293327</v>
+        <v>292258</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2732310293062423</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2441418535790588</v>
+        <v>0.2438778220444831</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.302901265615902</v>
+        <v>0.3017973039239203</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>378</v>
@@ -1358,19 +1358,19 @@
         <v>401357</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>364871</v>
+        <v>363502</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>437000</v>
+        <v>437210</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2079361634864334</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1890331805732964</v>
+        <v>0.1883242656073948</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2264020602426401</v>
+        <v>0.2265108290378363</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>171309</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>147939</v>
+        <v>149453</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>194186</v>
+        <v>197022</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2524779114967303</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2180358551409707</v>
+        <v>0.2202675204845302</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2861949073783617</v>
+        <v>0.2903743745112753</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>155</v>
@@ -1483,19 +1483,19 @@
         <v>151393</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>130476</v>
+        <v>130680</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>173466</v>
+        <v>173369</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2213858983379921</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1907981602807838</v>
+        <v>0.1910968758453639</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2536637039532114</v>
+        <v>0.253522667693044</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>317</v>
@@ -1504,19 +1504,19 @@
         <v>322701</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>293150</v>
+        <v>292348</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>352954</v>
+        <v>357201</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2368710591772431</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2151796420918512</v>
+        <v>0.2145906979070903</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2590772155597021</v>
+        <v>0.2621944400020005</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>189140</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>167707</v>
+        <v>165565</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>216947</v>
+        <v>214799</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.27875890479763</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2471699402230533</v>
+        <v>0.2440125395129424</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3197407532755787</v>
+        <v>0.3165753272738179</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>142</v>
@@ -1554,19 +1554,19 @@
         <v>140510</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>120975</v>
+        <v>120719</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>164746</v>
+        <v>162065</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2054718068244832</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1769054664597207</v>
+        <v>0.1765303212294595</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.240913124589208</v>
+        <v>0.2369920993337452</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>320</v>
@@ -1575,19 +1575,19 @@
         <v>329650</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>299025</v>
+        <v>296564</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>361617</v>
+        <v>362070</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2419719360944073</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2194918177213443</v>
+        <v>0.2176858626024461</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2654362737005292</v>
+        <v>0.2657685871324505</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>200989</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>177265</v>
+        <v>178715</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>225969</v>
+        <v>227820</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2962211088375959</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2612569755169936</v>
+        <v>0.2633937924098793</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3330379770168366</v>
+        <v>0.3357655599909602</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>200</v>
@@ -1625,19 +1625,19 @@
         <v>195502</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>173570</v>
+        <v>172225</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>220711</v>
+        <v>219767</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.285888704873355</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.253816431840534</v>
+        <v>0.2518493920816917</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3227517356493815</v>
+        <v>0.32137075730897</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>387</v>
@@ -1646,19 +1646,19 @@
         <v>396491</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>363173</v>
+        <v>364270</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>430325</v>
+        <v>433683</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2910346867827773</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2665784431432253</v>
+        <v>0.2673835865687082</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3158699163277368</v>
+        <v>0.3183344373510346</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>117071</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>97667</v>
+        <v>99029</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>137679</v>
+        <v>139623</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1725420748680437</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1439436104231088</v>
+        <v>0.1459504305612999</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2029139762026789</v>
+        <v>0.2057785671677116</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>199</v>
@@ -1696,19 +1696,19 @@
         <v>196436</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>174583</v>
+        <v>174149</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>220460</v>
+        <v>219551</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2872535899641697</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2552971127218895</v>
+        <v>0.2546627412460848</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3223846509785864</v>
+        <v>0.3210561535896534</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>313</v>
@@ -1717,19 +1717,19 @@
         <v>313507</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>284686</v>
+        <v>285058</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>344677</v>
+        <v>346928</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2301223179455723</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2089669727611927</v>
+        <v>0.2092402090176293</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2530017718983636</v>
+        <v>0.2546542228180968</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>239155</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>214189</v>
+        <v>215685</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>268247</v>
+        <v>267607</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2538203304454007</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2273233131505036</v>
+        <v>0.2289107660689694</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2846965263697518</v>
+        <v>0.2840172648978702</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>224</v>
@@ -1842,19 +1842,19 @@
         <v>231339</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>206929</v>
+        <v>205224</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>261274</v>
+        <v>261773</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2227381458564445</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1992364736028193</v>
+        <v>0.1975940254820923</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2515607816468244</v>
+        <v>0.2520413001903017</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>470</v>
@@ -1863,19 +1863,19 @@
         <v>470494</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>433115</v>
+        <v>432045</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>509051</v>
+        <v>510837</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2375229888344497</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2186529112119166</v>
+        <v>0.2181126827298553</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2569884524348827</v>
+        <v>0.2578897711715476</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>299650</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>272482</v>
+        <v>274150</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>326364</v>
+        <v>329985</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3180245892057636</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2891903816507265</v>
+        <v>0.2909608774624736</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3463772431954382</v>
+        <v>0.3502196394110405</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>237</v>
@@ -1913,19 +1913,19 @@
         <v>243905</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>218034</v>
+        <v>210875</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>272231</v>
+        <v>268669</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2348371392078969</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2099279711407787</v>
+        <v>0.20303531894875</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2621103814749124</v>
+        <v>0.2586810345327525</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>555</v>
@@ -1934,19 +1934,19 @@
         <v>543554</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>505699</v>
+        <v>502953</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>582083</v>
+        <v>583328</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2744068606487804</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2552957818629078</v>
+        <v>0.253909768470664</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2938577157547135</v>
+        <v>0.2944860996092296</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>259606</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>232681</v>
+        <v>232498</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>287959</v>
+        <v>288270</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2755250432673012</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2469487662013035</v>
+        <v>0.2467549337195464</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3056167308422923</v>
+        <v>0.3059465277312631</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>280</v>
@@ -1984,19 +1984,19 @@
         <v>292612</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>262612</v>
+        <v>264064</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>320200</v>
+        <v>322926</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2817337731978775</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2528488419606693</v>
+        <v>0.2542469257339504</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.308296426558789</v>
+        <v>0.3109210117437451</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>551</v>
@@ -2005,19 +2005,19 @@
         <v>552218</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>512125</v>
+        <v>512027</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>589617</v>
+        <v>595290</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.278780470579984</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2585401258253511</v>
+        <v>0.2584906816910753</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2976612077840236</v>
+        <v>0.3005247832497963</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>143811</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>122911</v>
+        <v>122776</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>166462</v>
+        <v>166215</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1526300370815346</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.130447531979082</v>
+        <v>0.1303045927044813</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.176669860929181</v>
+        <v>0.1764076733269451</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>256</v>
@@ -2055,19 +2055,19 @@
         <v>270757</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>242627</v>
+        <v>243620</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>299840</v>
+        <v>301201</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2606909417377812</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2336074257820035</v>
+        <v>0.2345634977988922</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.288692826365453</v>
+        <v>0.2900036682478755</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>415</v>
@@ -2076,19 +2076,19 @@
         <v>414568</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>379443</v>
+        <v>377401</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>450645</v>
+        <v>450632</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2092896799367858</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1915571304270987</v>
+        <v>0.190526303627311</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2275024791368427</v>
+        <v>0.2274963074436285</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>802340</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>749070</v>
+        <v>753845</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>851922</v>
+        <v>853826</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2448739650737581</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2286160900129789</v>
+        <v>0.2300731906485849</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2600064650441409</v>
+        <v>0.2605875575872486</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>663</v>
@@ -2201,19 +2201,19 @@
         <v>677630</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>634952</v>
+        <v>633864</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>722438</v>
+        <v>724490</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2005299956155066</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1879003216321455</v>
+        <v>0.1875781890339181</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.213789826756162</v>
+        <v>0.2143971123978507</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1431</v>
@@ -2222,19 +2222,19 @@
         <v>1479971</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1407191</v>
+        <v>1415105</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1548288</v>
+        <v>1550689</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2223600134977757</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2114251213599541</v>
+        <v>0.2126142548436313</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2326244811761699</v>
+        <v>0.2329851891071869</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>1065970</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1010389</v>
+        <v>1011435</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1117483</v>
+        <v>1119586</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3253336765066387</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3083704279117792</v>
+        <v>0.3086897627214811</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3410555290986461</v>
+        <v>0.3416971824505677</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>757</v>
@@ -2272,19 +2272,19 @@
         <v>766247</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>719821</v>
+        <v>719327</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>818529</v>
+        <v>816942</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2267542979179747</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2130153263879888</v>
+        <v>0.2128691160621302</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2422257581174284</v>
+        <v>0.2417561070811942</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1802</v>
@@ -2293,19 +2293,19 @@
         <v>1832218</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1759767</v>
+        <v>1754606</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1910304</v>
+        <v>1905270</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2752837738242656</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2643984128095166</v>
+        <v>0.2636229202434553</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2870159752662539</v>
+        <v>0.2862596135450548</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>890554</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>839960</v>
+        <v>839432</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>952126</v>
+        <v>946214</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2717966870226289</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2563556147609876</v>
+        <v>0.2561944759544594</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2905885962001805</v>
+        <v>0.2887843521607318</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>989</v>
@@ -2343,19 +2343,19 @@
         <v>1016247</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>953880</v>
+        <v>961633</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1064910</v>
+        <v>1067544</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3007363794583098</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2822799742018949</v>
+        <v>0.2845744646072057</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3151369652232799</v>
+        <v>0.315916513289175</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1861</v>
@@ -2364,19 +2364,19 @@
         <v>1906801</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1834852</v>
+        <v>1832692</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1977602</v>
+        <v>1980805</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2864897071126358</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2756796285352925</v>
+        <v>0.2753550314046913</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2971272803178644</v>
+        <v>0.2976085210375961</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>517680</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>476798</v>
+        <v>474780</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>560653</v>
+        <v>560029</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1579956713969742</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.14551860692494</v>
+        <v>0.1449027459305638</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1711110876187533</v>
+        <v>0.170920721330434</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>888</v>
@@ -2414,19 +2414,19 @@
         <v>919072</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>869107</v>
+        <v>869659</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>970320</v>
+        <v>970768</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2719793270082089</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2571933473444453</v>
+        <v>0.2573566118516696</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2871450819736884</v>
+        <v>0.2872776276898303</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1417</v>
@@ -2435,19 +2435,19 @@
         <v>1436752</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1372698</v>
+        <v>1369774</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1509642</v>
+        <v>1502424</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2158665055653229</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2062426678123697</v>
+        <v>0.2058033824492898</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2268179905756705</v>
+        <v>0.2257335608490749</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>207720</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>185436</v>
+        <v>182803</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>233540</v>
+        <v>233865</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2952801645940117</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2636015975083469</v>
+        <v>0.2598588159070525</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3319830199275465</v>
+        <v>0.3324457205798138</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>156</v>
@@ -2800,19 +2800,19 @@
         <v>162666</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>142032</v>
+        <v>142504</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>186495</v>
+        <v>187655</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2333639880568403</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2037620426709307</v>
+        <v>0.204438269242786</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2675495040951167</v>
+        <v>0.2692128000558948</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>361</v>
@@ -2821,19 +2821,19 @@
         <v>370387</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>338751</v>
+        <v>338381</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>405216</v>
+        <v>405591</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2644639661085619</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2418752855590293</v>
+        <v>0.2416113776886585</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2893324030737349</v>
+        <v>0.2896002817253435</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>172283</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>150194</v>
+        <v>148283</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>197048</v>
+        <v>195459</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2449050369037788</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2135046577852098</v>
+        <v>0.210788856032494</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2801095978714728</v>
+        <v>0.2778497400580631</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>149</v>
@@ -2871,19 +2871,19 @@
         <v>161983</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>139197</v>
+        <v>137793</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>185648</v>
+        <v>183474</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.232383808986276</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1996943014827873</v>
+        <v>0.1976804494068373</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2663336714375908</v>
+        <v>0.2632146694427461</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>314</v>
@@ -2892,19 +2892,19 @@
         <v>334266</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>304132</v>
+        <v>302318</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>370142</v>
+        <v>369564</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2386731171314771</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2171569920582582</v>
+        <v>0.2158611408266604</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2642888659774619</v>
+        <v>0.2638764069067865</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>188885</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>164182</v>
+        <v>166559</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>212803</v>
+        <v>217172</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2685053520488043</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2333886863928039</v>
+        <v>0.2367685304773483</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3025048335558844</v>
+        <v>0.3087162502390123</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>143</v>
@@ -2942,19 +2942,19 @@
         <v>154271</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>133306</v>
+        <v>131123</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>178700</v>
+        <v>177435</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2213200691281417</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1912429476685193</v>
+        <v>0.188110856684104</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2563662358298984</v>
+        <v>0.2545506586031742</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>320</v>
@@ -2963,19 +2963,19 @@
         <v>343156</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>308519</v>
+        <v>309941</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>375421</v>
+        <v>377645</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2450208424198499</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2202888035376017</v>
+        <v>0.2213046883122962</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2680587583212258</v>
+        <v>0.2696462249234512</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>134580</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>113747</v>
+        <v>111171</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>157360</v>
+        <v>156784</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1913094464534053</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1616943843587142</v>
+        <v>0.1580326809490656</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.223691888618424</v>
+        <v>0.2228731991803807</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>202</v>
@@ -3013,19 +3013,19 @@
         <v>218129</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>194223</v>
+        <v>195802</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>244640</v>
+        <v>244795</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.312932133828742</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2786352077166414</v>
+        <v>0.2809002494452278</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3509651999758597</v>
+        <v>0.3511866332457783</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>329</v>
@@ -3034,19 +3034,19 @@
         <v>352710</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>318504</v>
+        <v>323182</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>390113</v>
+        <v>390687</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2518420743401111</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2274183691776036</v>
+        <v>0.2307590771520799</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.278549228811516</v>
+        <v>0.2789584836585122</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>292149</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>260039</v>
+        <v>260999</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>323010</v>
+        <v>321427</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2869979494885164</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2554538876764021</v>
+        <v>0.2563974149120999</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3173149268966086</v>
+        <v>0.3157600158665473</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>208</v>
@@ -3159,19 +3159,19 @@
         <v>229917</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>205631</v>
+        <v>202723</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>261288</v>
+        <v>257153</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2227481502604571</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1992197801417827</v>
+        <v>0.1964018168772996</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2531406946333364</v>
+        <v>0.2491348278449413</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>471</v>
@@ -3180,19 +3180,19 @@
         <v>522066</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>481315</v>
+        <v>479750</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>564523</v>
+        <v>561550</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.254649962570089</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2347727430477416</v>
+        <v>0.234009311696016</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2753593665614266</v>
+        <v>0.2739093544214845</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>271395</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>243941</v>
+        <v>243652</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>304452</v>
+        <v>301010</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2666102357556894</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2396403568664388</v>
+        <v>0.2393557989838866</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2990844164477721</v>
+        <v>0.295703041242542</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>211</v>
@@ -3230,19 +3230,19 @@
         <v>228466</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>200830</v>
+        <v>200932</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>258297</v>
+        <v>257607</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2213424582856852</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1945684822534201</v>
+        <v>0.1946670655066836</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.250243321156975</v>
+        <v>0.2495742073775615</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>467</v>
@@ -3251,19 +3251,19 @@
         <v>499861</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>461656</v>
+        <v>463107</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>540801</v>
+        <v>543209</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2438191688415615</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2251838892520856</v>
+        <v>0.2258913993317018</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2637887385640704</v>
+        <v>0.264963039567485</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>265578</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>236311</v>
+        <v>238428</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>296636</v>
+        <v>296241</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2608956012852363</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2321446137196467</v>
+        <v>0.2342247322771033</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2914057617283076</v>
+        <v>0.2910181899921959</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>243</v>
@@ -3301,19 +3301,19 @@
         <v>267791</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>240073</v>
+        <v>239073</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>298841</v>
+        <v>298046</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2594413074732181</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.232587874861329</v>
+        <v>0.2316186855179763</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2895229455113865</v>
+        <v>0.2887527468767117</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>489</v>
@@ -3322,19 +3322,19 @@
         <v>533369</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>492284</v>
+        <v>491335</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>575648</v>
+        <v>574352</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2601634047994585</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2401230940904602</v>
+        <v>0.2396605017210368</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2807857235275315</v>
+        <v>0.2801539244256157</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>188825</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>162574</v>
+        <v>164297</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>215185</v>
+        <v>216207</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1854962134705579</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1597075290850932</v>
+        <v>0.1614002009479464</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2113910489333976</v>
+        <v>0.2123954301065785</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>278</v>
@@ -3372,19 +3372,19 @@
         <v>306010</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>273043</v>
+        <v>275513</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>337182</v>
+        <v>333599</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2964680839806396</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2645294156678484</v>
+        <v>0.266921996453457</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3266684552540323</v>
+        <v>0.323197465111474</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>449</v>
@@ -3393,19 +3393,19 @@
         <v>494835</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>457601</v>
+        <v>455243</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>534663</v>
+        <v>534285</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.241367463788891</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2232058419920107</v>
+        <v>0.2220554890998893</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2607944011122521</v>
+        <v>0.260610413729263</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>216341</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>191150</v>
+        <v>190051</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>244454</v>
+        <v>243708</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2855525200661072</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2523016574267135</v>
+        <v>0.2508516805812372</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3226591748478022</v>
+        <v>0.3216738565120805</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>157</v>
@@ -3518,19 +3518,19 @@
         <v>165452</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>143301</v>
+        <v>142411</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>190631</v>
+        <v>190279</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2128888176501678</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1843873022316541</v>
+        <v>0.1832419844902979</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2452870743474965</v>
+        <v>0.2448348286575444</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>355</v>
@@ -3539,19 +3539,19 @@
         <v>381793</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>350595</v>
+        <v>347887</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>417312</v>
+        <v>417592</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2487578632344616</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2284306479498804</v>
+        <v>0.2266666089170941</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2719007733131434</v>
+        <v>0.2720826832483813</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>230693</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>205655</v>
+        <v>205063</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>260587</v>
+        <v>257202</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3044960766064771</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2714478947387627</v>
+        <v>0.2706668549122518</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3439538760197057</v>
+        <v>0.3394857988614417</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>179</v>
@@ -3589,19 +3589,19 @@
         <v>201653</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>175890</v>
+        <v>177828</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>228052</v>
+        <v>229920</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.259469930278703</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2263200211075969</v>
+        <v>0.2288140576583947</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.293437915811123</v>
+        <v>0.2958416250040121</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>396</v>
@@ -3610,19 +3610,19 @@
         <v>432347</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>394165</v>
+        <v>391575</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>467148</v>
+        <v>466676</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2816962254084394</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2568188881997951</v>
+        <v>0.2551314409927123</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3043714105874025</v>
+        <v>0.30406395588122</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>203646</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>179034</v>
+        <v>178374</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>228697</v>
+        <v>231229</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2687956385509555</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2363099216668567</v>
+        <v>0.2354392852336405</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3018605989088856</v>
+        <v>0.3052034931617734</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>184</v>
@@ -3660,19 +3660,19 @@
         <v>207484</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>183892</v>
+        <v>181574</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>233926</v>
+        <v>234359</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2669724561135298</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2366162000737059</v>
+        <v>0.2336334187785997</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.300995045417219</v>
+        <v>0.3015526581710007</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>365</v>
@@ -3681,19 +3681,19 @@
         <v>411130</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>374873</v>
+        <v>374629</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>448992</v>
+        <v>451571</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2678724352197714</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2442493643140234</v>
+        <v>0.2440905776930613</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2925414883686872</v>
+        <v>0.2942221109265479</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>106943</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>87222</v>
+        <v>88376</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>132583</v>
+        <v>131206</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1411557647764602</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1151254111217132</v>
+        <v>0.1166494881326175</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1749990190397982</v>
+        <v>0.1731811720185167</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>185</v>
@@ -3731,19 +3731,19 @@
         <v>202585</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>176408</v>
+        <v>179975</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>228407</v>
+        <v>231523</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2606687959575994</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2269869486646362</v>
+        <v>0.231576816150914</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2938947490311986</v>
+        <v>0.2979040757995545</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>278</v>
@@ -3752,19 +3752,19 @@
         <v>309528</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>280197</v>
+        <v>276065</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>344103</v>
+        <v>342663</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2016734761373275</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1825626267258105</v>
+        <v>0.1798707382718074</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2242009846636686</v>
+        <v>0.2232629396638586</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>262842</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>234973</v>
+        <v>235554</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>292330</v>
+        <v>291516</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2773363372435088</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2479298725852152</v>
+        <v>0.2485433275176289</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3084496210276225</v>
+        <v>0.307591157527762</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>221</v>
@@ -3877,19 +3877,19 @@
         <v>227401</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>199868</v>
+        <v>201300</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>255688</v>
+        <v>253939</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.216181117089208</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1900065711438789</v>
+        <v>0.1913677655259267</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2430721122254602</v>
+        <v>0.2414094852926656</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>478</v>
@@ -3898,19 +3898,19 @@
         <v>490244</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>451979</v>
+        <v>453638</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>527708</v>
+        <v>531181</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2451659338162976</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2260300250139684</v>
+        <v>0.2268597610325022</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2639012859976197</v>
+        <v>0.2656381624576815</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>247510</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>221457</v>
+        <v>224266</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>275989</v>
+        <v>275645</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2611583859791418</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2336688087338914</v>
+        <v>0.2366324830400654</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2912080034475589</v>
+        <v>0.2908448230721976</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>228</v>
@@ -3948,19 +3948,19 @@
         <v>239630</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>211070</v>
+        <v>211386</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>266880</v>
+        <v>268106</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2278065714142627</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.200655568276679</v>
+        <v>0.2009562376130962</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2537116674900592</v>
+        <v>0.2548775972165356</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>474</v>
@@ -3969,19 +3969,19 @@
         <v>487140</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>447496</v>
+        <v>450422</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>522101</v>
+        <v>529121</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.243613827609888</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2237883056121744</v>
+        <v>0.22525151869997</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2610972890750098</v>
+        <v>0.2646083071216238</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>255317</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>227906</v>
+        <v>227718</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>286875</v>
+        <v>285803</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2693955682544066</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2404728697875441</v>
+        <v>0.2402754365349813</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3026942491738873</v>
+        <v>0.3015635095409486</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>261</v>
@@ -4019,19 +4019,19 @@
         <v>274505</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>248328</v>
+        <v>247168</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>306524</v>
+        <v>307183</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2609606837571371</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2360756478369949</v>
+        <v>0.2349729423303056</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2914002240637637</v>
+        <v>0.2920265008325517</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>499</v>
@@ -4040,19 +4040,19 @@
         <v>529821</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>487839</v>
+        <v>488118</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>567062</v>
+        <v>571928</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2649584386609812</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2439631799013784</v>
+        <v>0.2441027152580739</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2835821624640998</v>
+        <v>0.286015607805134</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>182070</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>159401</v>
+        <v>160199</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>206826</v>
+        <v>211807</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1921097085229428</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1681910500749444</v>
+        <v>0.1690328258194781</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2182313075117758</v>
+        <v>0.2234863076272436</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>293</v>
@@ -4090,19 +4090,19 @@
         <v>310365</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>282538</v>
+        <v>278281</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>342993</v>
+        <v>340738</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2950516277393923</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2685974324732233</v>
+        <v>0.2645504121431093</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3260693606724442</v>
+        <v>0.3239256838004977</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>462</v>
@@ -4111,19 +4111,19 @@
         <v>492435</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>451683</v>
+        <v>450396</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>533473</v>
+        <v>534406</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2462617999128331</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2258820315455134</v>
+        <v>0.2252387134878597</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2667843816456467</v>
+        <v>0.2672510516823557</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>979053</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>926496</v>
+        <v>924653</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1036983</v>
+        <v>1034079</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2857065034191583</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2703693822656109</v>
+        <v>0.2698316145605247</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3026114936298521</v>
+        <v>0.3017640118427196</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>742</v>
@@ -4236,19 +4236,19 @@
         <v>785436</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>736523</v>
+        <v>736539</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>837494</v>
+        <v>840700</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2207330031815683</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2069866928284899</v>
+        <v>0.2069913769793003</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2353629248067426</v>
+        <v>0.2362638640289028</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1665</v>
@@ -4257,19 +4257,19 @@
         <v>1764489</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1694911</v>
+        <v>1700128</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1847454</v>
+        <v>1842109</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2526080230413384</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2426471196803472</v>
+        <v>0.2433938937379636</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2644854208292093</v>
+        <v>0.2637202913905539</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>921882</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>864749</v>
+        <v>873062</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>973865</v>
+        <v>974913</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2690228014622627</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2523503962270353</v>
+        <v>0.2547761680154297</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2841924841246113</v>
+        <v>0.2844984668770483</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>767</v>
@@ -4307,19 +4307,19 @@
         <v>831733</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>781508</v>
+        <v>781317</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>887138</v>
+        <v>883027</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2337437590138622</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.219629126286821</v>
+        <v>0.2195754593042499</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2493143972749748</v>
+        <v>0.2481591669582519</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1651</v>
@@ -4328,19 +4328,19 @@
         <v>1753614</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1676503</v>
+        <v>1678187</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1825550</v>
+        <v>1831467</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2510511254719471</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2400116557366565</v>
+        <v>0.2402528462161454</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2613495536871485</v>
+        <v>0.2621967637613746</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>913426</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>858231</v>
+        <v>860329</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>966484</v>
+        <v>967360</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2665552106353045</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2504484294777202</v>
+        <v>0.25106046814333</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2820387399355084</v>
+        <v>0.2822943103977331</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>831</v>
@@ -4378,19 +4378,19 @@
         <v>904051</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>845802</v>
+        <v>848424</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>956009</v>
+        <v>960040</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2540676418653992</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2376978421239417</v>
+        <v>0.2384344735494063</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2686693833171954</v>
+        <v>0.2698023816944274</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1673</v>
@@ -4399,19 +4399,19 @@
         <v>1817477</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1741037</v>
+        <v>1745151</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1893989</v>
+        <v>1895303</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2601938548766338</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2492505889668273</v>
+        <v>0.2498395394242849</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.271147544404193</v>
+        <v>0.2713355317294573</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>612418</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>566964</v>
+        <v>566834</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>661913</v>
+        <v>659141</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1787154844832746</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1654509730096534</v>
+        <v>0.1654130903929628</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.193158831063228</v>
+        <v>0.1923500774824448</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>958</v>
@@ -4449,19 +4449,19 @@
         <v>1037089</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>983941</v>
+        <v>976492</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1100599</v>
+        <v>1093418</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2914555959391704</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2765191303811136</v>
+        <v>0.2744258855450559</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3093040485501006</v>
+        <v>0.3072859052383654</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1518</v>
@@ -4470,19 +4470,19 @@
         <v>1649508</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1580382</v>
+        <v>1575285</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1725972</v>
+        <v>1721818</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2361469966100808</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2262508016619111</v>
+        <v>0.2255210754517412</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2470938181796452</v>
+        <v>0.2464991596612895</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>264968</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>240832</v>
+        <v>240304</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>292640</v>
+        <v>291706</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3926613596952395</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.356893937071413</v>
+        <v>0.3561114017346934</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4336699198464605</v>
+        <v>0.4322848133134202</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>210</v>
@@ -4835,19 +4835,19 @@
         <v>199121</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>176049</v>
+        <v>176806</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>222142</v>
+        <v>221571</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2959409984796604</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2616504096752147</v>
+        <v>0.2627762836388423</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3301568838279827</v>
+        <v>0.3293076116185708</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>465</v>
@@ -4856,19 +4856,19 @@
         <v>464089</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>430832</v>
+        <v>428537</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>498915</v>
+        <v>498975</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3443715498681493</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3196942598034279</v>
+        <v>0.3179908063885715</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3702138931785475</v>
+        <v>0.3702586806098431</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>114981</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>95982</v>
+        <v>96265</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>135150</v>
+        <v>134902</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1703920162360947</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1422378093911101</v>
+        <v>0.1426575057982531</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2002821328320142</v>
+        <v>0.1999144508071164</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>125</v>
@@ -4906,19 +4906,19 @@
         <v>122208</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>105623</v>
+        <v>105177</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>141228</v>
+        <v>144486</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1816304814786259</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1569810350832825</v>
+        <v>0.1563176252877647</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2098987616566821</v>
+        <v>0.2147408130332576</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>237</v>
@@ -4927,19 +4927,19 @@
         <v>237189</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>209671</v>
+        <v>211653</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>267002</v>
+        <v>265618</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1760030720933052</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1555843114326526</v>
+        <v>0.1570543775835885</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1981256346450056</v>
+        <v>0.1970984599425306</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>165203</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>142925</v>
+        <v>143778</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>189297</v>
+        <v>189094</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.244817819138787</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2118037622174255</v>
+        <v>0.2130677724964816</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2805231043325496</v>
+        <v>0.2802223961789687</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>142</v>
@@ -4977,19 +4977,19 @@
         <v>148642</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>127450</v>
+        <v>127304</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>171744</v>
+        <v>171184</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2209171629316699</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1894216754516239</v>
+        <v>0.1892039581329006</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2552531599162128</v>
+        <v>0.2544205967672157</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>299</v>
@@ -4998,19 +4998,19 @@
         <v>313845</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>282787</v>
+        <v>281674</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>347584</v>
+        <v>345478</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2328848804226892</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2098391467570909</v>
+        <v>0.2090127653627176</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.257920599706613</v>
+        <v>0.2563576604601987</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>129649</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>109705</v>
+        <v>112170</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>151895</v>
+        <v>152754</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1921288049298789</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1625742159364618</v>
+        <v>0.1662277253516345</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2250961790852351</v>
+        <v>0.2263690591069185</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>189</v>
@@ -5048,19 +5048,19 @@
         <v>202869</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>176548</v>
+        <v>179757</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>227130</v>
+        <v>228664</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3015113571100438</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2623919368309685</v>
+        <v>0.2671619632672093</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3375697267545094</v>
+        <v>0.3398499729582315</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>317</v>
@@ -5069,19 +5069,19 @@
         <v>332517</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>304327</v>
+        <v>299747</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>367071</v>
+        <v>362782</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2467404976158563</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2258223858108378</v>
+        <v>0.2224241665281175</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2723810675124713</v>
+        <v>0.2691982916902397</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>349130</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>319086</v>
+        <v>315656</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>382112</v>
+        <v>376614</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3414700232967042</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3120852724346085</v>
+        <v>0.3087312493154185</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.373728444884377</v>
+        <v>0.3683511905601068</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>306</v>
@@ -5194,19 +5194,19 @@
         <v>307162</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>277928</v>
+        <v>277121</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>336136</v>
+        <v>339258</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2945226866867991</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2664923802347254</v>
+        <v>0.2657179274322827</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3223049490082411</v>
+        <v>0.3252987440140752</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>630</v>
@@ -5215,19 +5215,19 @@
         <v>656291</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>614133</v>
+        <v>614470</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>698677</v>
+        <v>705136</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3177635666937355</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2973514260688825</v>
+        <v>0.2975143908027661</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3382861900793904</v>
+        <v>0.341413356781763</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>285340</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>254940</v>
+        <v>255331</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>314372</v>
+        <v>314661</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2790798753973444</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2493473830041065</v>
+        <v>0.2497288474848295</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3074752311398648</v>
+        <v>0.3077579969190705</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>218</v>
@@ -5265,19 +5265,19 @@
         <v>229102</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>203931</v>
+        <v>203499</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>258025</v>
+        <v>255447</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2196750425943646</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1955393393602297</v>
+        <v>0.1951256319184289</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.247407852990191</v>
+        <v>0.2449362713151459</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>480</v>
@@ -5286,19 +5286,19 @@
         <v>514442</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>473985</v>
+        <v>472419</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>552694</v>
+        <v>553463</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2490829002216892</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2294946589148555</v>
+        <v>0.2287361425414741</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2676038267619714</v>
+        <v>0.2679759516564539</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>220450</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>191749</v>
+        <v>195646</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>246113</v>
+        <v>251716</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2156136666765302</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1875423950848839</v>
+        <v>0.1913537432932707</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2407137764198769</v>
+        <v>0.2461931704749393</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>216</v>
@@ -5336,19 +5336,19 @@
         <v>231092</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>204642</v>
+        <v>204791</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>258277</v>
+        <v>260005</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2215828393180093</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1962219656650192</v>
+        <v>0.1963641415119249</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2476491899783499</v>
+        <v>0.2493063811860857</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>414</v>
@@ -5357,19 +5357,19 @@
         <v>451542</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>414149</v>
+        <v>413676</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>491383</v>
+        <v>493617</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2186278511308406</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2005232535471238</v>
+        <v>0.2002939120627409</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2379182712772794</v>
+        <v>0.23899975546717</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>167511</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>144089</v>
+        <v>147200</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>192785</v>
+        <v>192553</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1638364346294212</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1409281215660083</v>
+        <v>0.1439710742529952</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1885552014143178</v>
+        <v>0.1883289560473899</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>237</v>
@@ -5407,19 +5407,19 @@
         <v>275558</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>244541</v>
+        <v>245299</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>303953</v>
+        <v>306579</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.264219431400827</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2344786967158654</v>
+        <v>0.2352055013326051</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2914465775664983</v>
+        <v>0.2939641740509937</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>404</v>
@@ -5428,19 +5428,19 @@
         <v>443069</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>405543</v>
+        <v>407898</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>482729</v>
+        <v>483800</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2145256819537347</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1963560941179417</v>
+        <v>0.1974963677859118</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2337282905745722</v>
+        <v>0.2342467507628275</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>268565</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>239617</v>
+        <v>242361</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>296406</v>
+        <v>296456</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3535828080978585</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3154717478255153</v>
+        <v>0.3190835487617877</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3902383007655463</v>
+        <v>0.3903041548679516</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>225</v>
@@ -5553,19 +5553,19 @@
         <v>227913</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>204028</v>
+        <v>201861</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>253401</v>
+        <v>255644</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2903306386475842</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2599044180417416</v>
+        <v>0.2571441274880131</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3227998694705535</v>
+        <v>0.3256571396797976</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>471</v>
@@ -5574,19 +5574,19 @@
         <v>496477</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>457799</v>
+        <v>461921</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>532122</v>
+        <v>538350</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3214354388593888</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2963939475321875</v>
+        <v>0.2990626443612389</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3445132205985727</v>
+        <v>0.3485449414454138</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>177394</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>152361</v>
+        <v>153948</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>203890</v>
+        <v>203449</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.233551266318985</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2005925909264714</v>
+        <v>0.2026829432680015</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2684345061774421</v>
+        <v>0.2678536821045442</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>162</v>
@@ -5624,19 +5624,19 @@
         <v>168346</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>146362</v>
+        <v>144746</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>193559</v>
+        <v>193280</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2144505594399126</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1864452082226836</v>
+        <v>0.1843867503774236</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2465681826275649</v>
+        <v>0.2462137108554908</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>322</v>
@@ -5645,19 +5645,19 @@
         <v>345740</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>311413</v>
+        <v>309308</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>380098</v>
+        <v>379164</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2238434968923561</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2016189261939758</v>
+        <v>0.2002561138231478</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2460875864023903</v>
+        <v>0.2454827284555127</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>202458</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>176715</v>
+        <v>176652</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>230715</v>
+        <v>225781</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2665498124830829</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2326574199220233</v>
+        <v>0.2325736445145514</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3037510441395593</v>
+        <v>0.2972553500723275</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>191</v>
@@ -5695,19 +5695,19 @@
         <v>206122</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>182454</v>
+        <v>182861</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>231443</v>
+        <v>233481</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2625721774289742</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2324217129489157</v>
+        <v>0.2329405720984081</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2948278546785124</v>
+        <v>0.2974241872777889</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>376</v>
@@ -5716,19 +5716,19 @@
         <v>408580</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>375508</v>
+        <v>374865</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>448807</v>
+        <v>448311</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2645282137949804</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.24311604627525</v>
+        <v>0.2426997547061834</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2905721871677827</v>
+        <v>0.2902508503225778</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>111135</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>90117</v>
+        <v>91427</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>131489</v>
+        <v>132269</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1463161131000736</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1186448761742346</v>
+        <v>0.120369123749693</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.17311351679991</v>
+        <v>0.1741408528443864</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>158</v>
@@ -5766,19 +5766,19 @@
         <v>182630</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>160202</v>
+        <v>158592</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>211075</v>
+        <v>209644</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2326466244835291</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2040766229678004</v>
+        <v>0.2020255891427162</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2688811682846657</v>
+        <v>0.2670580603888758</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>263</v>
@@ -5787,19 +5787,19 @@
         <v>293765</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>263185</v>
+        <v>261242</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>325414</v>
+        <v>326755</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1901928504532747</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1703941793617675</v>
+        <v>0.1691362799551871</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2106833243634236</v>
+        <v>0.2115517292148058</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>333715</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>303801</v>
+        <v>307722</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>364097</v>
+        <v>366158</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3559375480180735</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3240314474709258</v>
+        <v>0.3282132576938944</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3883420700465235</v>
+        <v>0.3905402028500243</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>305</v>
@@ -5912,19 +5912,19 @@
         <v>315682</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>286413</v>
+        <v>284649</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>347400</v>
+        <v>344704</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3024414696239576</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2743998769527731</v>
+        <v>0.2727100484894615</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3328290294090737</v>
+        <v>0.3302462513528084</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>637</v>
@@ -5933,19 +5933,19 @@
         <v>649397</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>608290</v>
+        <v>605460</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>689140</v>
+        <v>691530</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3277556537121102</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3070083790079106</v>
+        <v>0.3055803210898636</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3478143072112359</v>
+        <v>0.3490202194633956</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>248818</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>223637</v>
+        <v>222177</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>279870</v>
+        <v>278493</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2653870274976607</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2385287168221133</v>
+        <v>0.2369715640093998</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2985065235949535</v>
+        <v>0.297038001481767</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>236</v>
@@ -5983,19 +5983,19 @@
         <v>246742</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>216789</v>
+        <v>219908</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>273842</v>
+        <v>276436</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2363933157495245</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2076959690330114</v>
+        <v>0.2106844589115699</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2623561738404003</v>
+        <v>0.2648419189545466</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>481</v>
@@ -6004,19 +6004,19 @@
         <v>495560</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>457731</v>
+        <v>461370</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>533294</v>
+        <v>540696</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2501130533195196</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2310200154033659</v>
+        <v>0.2328568483741484</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2691574640777953</v>
+        <v>0.2728935092646105</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>196978</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>172415</v>
+        <v>169875</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>221611</v>
+        <v>221752</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2100952803445877</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1838965133421626</v>
+        <v>0.1811870709240904</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2363678742930382</v>
+        <v>0.2365185426995045</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>196</v>
@@ -6054,19 +6054,19 @@
         <v>215700</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>191215</v>
+        <v>189985</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>247897</v>
+        <v>243145</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2066533995480345</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1831949563376944</v>
+        <v>0.1820165283197017</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2374994588302891</v>
+        <v>0.2329463446911285</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>394</v>
@@ -6075,19 +6075,19 @@
         <v>412679</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>378212</v>
+        <v>377755</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>449554</v>
+        <v>446732</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2082820872333548</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1908864784780117</v>
+        <v>0.1906557169381773</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2268933853560472</v>
+        <v>0.2254687654255368</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>158055</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>135244</v>
+        <v>136985</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>182880</v>
+        <v>182073</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1685801441396781</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1442503508074886</v>
+        <v>0.1461064826665648</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1950582215593184</v>
+        <v>0.1941975795783417</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>222</v>
@@ -6125,19 +6125,19 @@
         <v>265654</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>236655</v>
+        <v>236110</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>299281</v>
+        <v>294844</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2545118150784834</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2267286681737896</v>
+        <v>0.2262066789979001</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2867285174498536</v>
+        <v>0.2824770717992822</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>379</v>
@@ -6146,19 +6146,19 @@
         <v>423709</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>387986</v>
+        <v>386973</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>465553</v>
+        <v>463544</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2138492057350154</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.195819642157722</v>
+        <v>0.1953080435159165</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2349680778788235</v>
+        <v>0.2339542670086276</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>1216377</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1154413</v>
+        <v>1161409</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1267794</v>
+        <v>1274393</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3583535137615771</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3400983294860914</v>
+        <v>0.3421594931979029</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3735012754350495</v>
+        <v>0.3754452840599809</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1046</v>
@@ -6271,19 +6271,19 @@
         <v>1049877</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>992448</v>
+        <v>993147</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1111831</v>
+        <v>1101157</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2961953854371638</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2799931959159677</v>
+        <v>0.2801905488849862</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3136742009746436</v>
+        <v>0.3106628320015483</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2203</v>
@@ -6292,19 +6292,19 @@
         <v>2266254</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2185823</v>
+        <v>2193316</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2347579</v>
+        <v>2343570</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3266017462515167</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3150103262355384</v>
+        <v>0.3160902748741057</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3383218455956951</v>
+        <v>0.3377441196981982</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>826533</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>775956</v>
+        <v>774951</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>877900</v>
+        <v>875390</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.243502554277719</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2286021720098785</v>
+        <v>0.2283061536294939</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2586357880664078</v>
+        <v>0.2578963529294718</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>741</v>
@@ -6342,19 +6342,19 @@
         <v>766398</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>714020</v>
+        <v>720894</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>816992</v>
+        <v>818944</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2162193186436273</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2014422334644831</v>
+        <v>0.2033814553797296</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2304931024435007</v>
+        <v>0.2310435682912602</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1520</v>
@@ -6363,19 +6363,19 @@
         <v>1592931</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1521779</v>
+        <v>1520817</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1664309</v>
+        <v>1661686</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.229565664958038</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2193115957896086</v>
+        <v>0.2191729350490576</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.23985225641672</v>
+        <v>0.2394742669196904</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>785090</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>739317</v>
+        <v>729552</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>839883</v>
+        <v>833351</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2312931840916052</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2178080392423102</v>
+        <v>0.2149312943692547</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2474355602196586</v>
+        <v>0.2455111952339387</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>745</v>
@@ -6413,19 +6413,19 @@
         <v>801556</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>751655</v>
+        <v>746445</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>856565</v>
+        <v>855130</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2261380548270666</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2120597978879764</v>
+        <v>0.2105899652538283</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.241657499466746</v>
+        <v>0.2412525854073733</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1483</v>
@@ -6434,19 +6434,19 @@
         <v>1586646</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1509693</v>
+        <v>1516468</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1661522</v>
+        <v>1660620</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2286598283213406</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2175698029125934</v>
+        <v>0.2185461515324981</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2394505913136203</v>
+        <v>0.2393206420697473</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>566350</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>524096</v>
+        <v>523560</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>609945</v>
+        <v>610378</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1668507478690987</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1544024319498621</v>
+        <v>0.1542445487510044</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1796943019349646</v>
+        <v>0.1798218473448686</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>806</v>
@@ -6484,19 +6484,19 @@
         <v>926711</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>875066</v>
+        <v>868784</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>981528</v>
+        <v>982809</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2614472410921424</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2468770966135048</v>
+        <v>0.2451047123067584</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2769123722900101</v>
+        <v>0.2772737755479987</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1363</v>
@@ -6505,19 +6505,19 @@
         <v>1493061</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1422569</v>
+        <v>1425459</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1566584</v>
+        <v>1560437</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2151727604691047</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2050138658982271</v>
+        <v>0.2054304182217138</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.225768547184199</v>
+        <v>0.2248827002589991</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>144470</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>119480</v>
+        <v>121646</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>174726</v>
+        <v>173461</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2109756380421924</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1744819276423764</v>
+        <v>0.1776446670835358</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.255160109825931</v>
+        <v>0.2533129573348848</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>192</v>
@@ -6870,19 +6870,19 @@
         <v>137402</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>119894</v>
+        <v>120598</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>159291</v>
+        <v>159854</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1889905442395914</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1649089962216859</v>
+        <v>0.1658778653884122</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2190981724782141</v>
+        <v>0.2198727075604821</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>309</v>
@@ -6891,19 +6891,19 @@
         <v>281872</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>253305</v>
+        <v>250487</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>316260</v>
+        <v>316988</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1996540511903047</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.179419408517945</v>
+        <v>0.1774233298867124</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2240118768011036</v>
+        <v>0.2245269079373103</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>193612</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>169335</v>
+        <v>169919</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>220595</v>
+        <v>218428</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2827399013516675</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2472876358376794</v>
+        <v>0.2481399419334402</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3221439672090343</v>
+        <v>0.3189796680639927</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>288</v>
@@ -6941,19 +6941,19 @@
         <v>198372</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>178261</v>
+        <v>178000</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>219338</v>
+        <v>217287</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2728516643167322</v>
+        <v>0.2728516643167321</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2451904735122814</v>
+        <v>0.2448312513069963</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.301689782735664</v>
+        <v>0.2988689702944081</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>483</v>
@@ -6962,19 +6962,19 @@
         <v>391984</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>359292</v>
+        <v>359010</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>427168</v>
+        <v>423657</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2776477905147409</v>
+        <v>0.277647790514741</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2544917033480839</v>
+        <v>0.2542920730159755</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3025692060502569</v>
+        <v>0.3000823654241515</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>163666</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>139788</v>
+        <v>141895</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>189160</v>
+        <v>190262</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2390090480002204</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2041376114065218</v>
+        <v>0.2072155044483472</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2762380695194923</v>
+        <v>0.277847403224704</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>281</v>
@@ -7012,19 +7012,19 @@
         <v>160818</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>142772</v>
+        <v>144194</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>179397</v>
+        <v>181900</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.221197785119175</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1963767888518533</v>
+        <v>0.1983320239261767</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2467535085619644</v>
+        <v>0.2501963418839439</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>462</v>
@@ -7033,19 +7033,19 @@
         <v>324484</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>294241</v>
+        <v>293480</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>356233</v>
+        <v>357599</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2298368442579874</v>
+        <v>0.2298368442579875</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2084154373352501</v>
+        <v>0.2078759230186364</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2523251885751619</v>
+        <v>0.2532925511895303</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>183022</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>161732</v>
+        <v>162212</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>208867</v>
+        <v>207055</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2672754126059197</v>
+        <v>0.2672754126059196</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2361840369728084</v>
+        <v>0.2368845617128869</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3050173785288104</v>
+        <v>0.3023706465696709</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>466</v>
@@ -7083,19 +7083,19 @@
         <v>230440</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>210295</v>
+        <v>210021</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>252018</v>
+        <v>249892</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3169600063245015</v>
+        <v>0.3169600063245014</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2892512661696083</v>
+        <v>0.2888743817652425</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3466403160892583</v>
+        <v>0.3437158422749367</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>697</v>
@@ -7104,19 +7104,19 @@
         <v>413462</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>384503</v>
+        <v>384397</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>447949</v>
+        <v>448385</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2928613140369669</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2723488831435286</v>
+        <v>0.2722743374809141</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3172884863563497</v>
+        <v>0.3175974122906005</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>298123</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>263693</v>
+        <v>262494</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>332505</v>
+        <v>332822</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2856046778774642</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2526205721087951</v>
+        <v>0.2514713646331022</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3185432534675194</v>
+        <v>0.3188466039543488</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>320</v>
@@ -7229,19 +7229,19 @@
         <v>256324</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>229650</v>
+        <v>230050</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>283950</v>
+        <v>285668</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.240654843914118</v>
+        <v>0.2406548439141179</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2156117932723632</v>
+        <v>0.2159867018192389</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2665918443583447</v>
+        <v>0.2682052706959477</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>554</v>
@@ -7250,19 +7250,19 @@
         <v>554447</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>515722</v>
+        <v>511856</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>600925</v>
+        <v>601304</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2629029794431038</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2445405048328911</v>
+        <v>0.2427074239905191</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2849411489441311</v>
+        <v>0.2851210195199434</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>357757</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>322940</v>
+        <v>321005</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>393022</v>
+        <v>392386</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.342735048625273</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3093793546364795</v>
+        <v>0.3075260795863426</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3765187455113121</v>
+        <v>0.3759097571541313</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>343</v>
@@ -7300,19 +7300,19 @@
         <v>275938</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>250655</v>
+        <v>252155</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>305433</v>
+        <v>306558</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2590700132389062</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2353322989001689</v>
+        <v>0.2367401883586365</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2867615082572068</v>
+        <v>0.2878183379617374</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>658</v>
@@ -7321,19 +7321,19 @@
         <v>633696</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>592967</v>
+        <v>591257</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>681068</v>
+        <v>680200</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3004804230711457</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2811677062435791</v>
+        <v>0.280357047643882</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3229426996287965</v>
+        <v>0.3225310986141633</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>197580</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>172217</v>
+        <v>172397</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>226058</v>
+        <v>229704</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1892832786401292</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1649859556971215</v>
+        <v>0.1651581079880405</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2165657507097495</v>
+        <v>0.2200584599112261</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>316</v>
@@ -7371,19 +7371,19 @@
         <v>214056</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>190163</v>
+        <v>191232</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>236706</v>
+        <v>237116</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2009704884048274</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1785384923296203</v>
+        <v>0.1795416960310342</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2222363681743783</v>
+        <v>0.2226207783753433</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>513</v>
@@ -7392,19 +7392,19 @@
         <v>411636</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>376795</v>
+        <v>378481</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>450535</v>
+        <v>447618</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1951858479762839</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1786655013276232</v>
+        <v>0.179464910570146</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2136308879842327</v>
+        <v>0.2122473392456661</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>190371</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>166420</v>
+        <v>167816</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>216846</v>
+        <v>216014</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1823769948571335</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1594320366191727</v>
+        <v>0.1607693426082597</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2077400754162033</v>
+        <v>0.2069437518846237</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>527</v>
@@ -7442,19 +7442,19 @@
         <v>318793</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>294931</v>
+        <v>290839</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>344446</v>
+        <v>342493</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2993046544421484</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2769017976605648</v>
+        <v>0.273059365767606</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3233898493760651</v>
+        <v>0.321556036489306</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>740</v>
@@ -7463,19 +7463,19 @@
         <v>509164</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>473954</v>
+        <v>473656</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>543360</v>
+        <v>549180</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2414307495094667</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2247355520498547</v>
+        <v>0.2245942445706697</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2576456105120405</v>
+        <v>0.2604055379909047</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>214202</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>184645</v>
+        <v>185126</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>248380</v>
+        <v>250494</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2676369979060626</v>
+        <v>0.2676369979060627</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2307071141730743</v>
+        <v>0.2313079394650887</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3103416839483771</v>
+        <v>0.3129821055843067</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>197</v>
@@ -7588,19 +7588,19 @@
         <v>187937</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>162928</v>
+        <v>163614</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>212944</v>
+        <v>212774</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2319059396486484</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2010460103580665</v>
+        <v>0.201891781556209</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2627627622089794</v>
+        <v>0.2625534968253893</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>345</v>
@@ -7609,19 +7609,19 @@
         <v>402139</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>363589</v>
+        <v>361877</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>442774</v>
+        <v>442248</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2496599144353844</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2257268990262753</v>
+        <v>0.224663598199605</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2748873324136539</v>
+        <v>0.274560688987617</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>223470</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>193607</v>
+        <v>194289</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>253923</v>
+        <v>253887</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2792174713931167</v>
+        <v>0.2792174713931168</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2419049183771927</v>
+        <v>0.2427560195487115</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3172668872680696</v>
+        <v>0.317222247633052</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>233</v>
@@ -7659,19 +7659,19 @@
         <v>199880</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>175739</v>
+        <v>179291</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>224529</v>
+        <v>225565</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2466427008447867</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2168540277145219</v>
+        <v>0.2212372667979262</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2770581163648055</v>
+        <v>0.2783365639284419</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>410</v>
@@ -7680,19 +7680,19 @@
         <v>423351</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>385731</v>
+        <v>385715</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>460460</v>
+        <v>461123</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.2628283858819422</v>
+        <v>0.2628283858819423</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2394729572778693</v>
+        <v>0.2394629415716741</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2858669355143912</v>
+        <v>0.2862783820545232</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>200364</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>174731</v>
+        <v>173301</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>227730</v>
+        <v>228461</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2503468198877278</v>
+        <v>0.2503468198877279</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.218319980504636</v>
+        <v>0.2165325331614795</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2845401691846444</v>
+        <v>0.2854536592588116</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>290</v>
@@ -7730,19 +7730,19 @@
         <v>206890</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>184397</v>
+        <v>186052</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>229810</v>
+        <v>229726</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2552926853492978</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2275371677479372</v>
+        <v>0.2295798701532192</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2835752405209681</v>
+        <v>0.2834707883335111</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>476</v>
@@ -7751,19 +7751,19 @@
         <v>407254</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>372765</v>
+        <v>377007</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>442210</v>
+        <v>446306</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2528351938842897</v>
+        <v>0.2528351938842898</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2314232716219811</v>
+        <v>0.2340570522562118</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2745366891032189</v>
+        <v>0.2770800560694089</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>162309</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>137853</v>
+        <v>138946</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>187303</v>
+        <v>185495</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2027987108130927</v>
+        <v>0.2027987108130928</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1722421134702373</v>
+        <v>0.1736074383070977</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2340276915951955</v>
+        <v>0.2317684552318396</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>324</v>
@@ -7801,19 +7801,19 @@
         <v>215696</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>194440</v>
+        <v>194542</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>237302</v>
+        <v>240222</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2661586741572671</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2399294068871487</v>
+        <v>0.2400558121214805</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2928199934860174</v>
+        <v>0.2964225601350603</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>487</v>
@@ -7822,19 +7822,19 @@
         <v>378005</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>345748</v>
+        <v>345625</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>412544</v>
+        <v>409531</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2346765057983835</v>
+        <v>0.2346765057983836</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2146503509831867</v>
+        <v>0.2145739084375455</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2561194871864785</v>
+        <v>0.2542490200198609</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>219337</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>192762</v>
+        <v>191238</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>250049</v>
+        <v>251333</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2224163685625379</v>
+        <v>0.222416368562538</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1954685048624648</v>
+        <v>0.1939223726467146</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2535591658941347</v>
+        <v>0.2548619013877439</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>273</v>
@@ -7947,19 +7947,19 @@
         <v>240088</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>215308</v>
+        <v>216105</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>268302</v>
+        <v>267447</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2156962215768065</v>
+        <v>0.2156962215768064</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.193434254437797</v>
+        <v>0.1941505436750102</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2410439083455159</v>
+        <v>0.2402762143523222</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>455</v>
@@ -7968,19 +7968,19 @@
         <v>459425</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>416721</v>
+        <v>420955</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>501281</v>
+        <v>502740</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2188531326398336</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.198510557931344</v>
+        <v>0.2005276720003381</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2387920920570745</v>
+        <v>0.2394868100069351</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>260500</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>232156</v>
+        <v>232804</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>289800</v>
+        <v>290337</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2641574691385528</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2354152917429444</v>
+        <v>0.2360723758956389</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2938690108792608</v>
+        <v>0.2944128833129863</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>303</v>
@@ -8018,19 +8018,19 @@
         <v>245693</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>220311</v>
+        <v>218677</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>271624</v>
+        <v>275707</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2207319452563234</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1979284438704084</v>
+        <v>0.1964611951290247</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2440285577945939</v>
+        <v>0.2476971913269967</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>551</v>
@@ -8039,19 +8039,19 @@
         <v>506193</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>467347</v>
+        <v>466235</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>543764</v>
+        <v>545581</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2411318735692956</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2226270070863273</v>
+        <v>0.2220974085247472</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2590293786240122</v>
+        <v>0.2598948846255326</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>298244</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>270791</v>
+        <v>267645</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>332829</v>
+        <v>327061</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3024311771341765</v>
+        <v>0.3024311771341766</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2745931943624308</v>
+        <v>0.2714022681834454</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3375013189955424</v>
+        <v>0.3316527910693557</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>398</v>
@@ -8089,19 +8089,19 @@
         <v>265167</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>241742</v>
+        <v>241912</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>291218</v>
+        <v>291227</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2382280539616814</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.217182765133609</v>
+        <v>0.2173353268537578</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.261632273582674</v>
+        <v>0.2616406042265554</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>714</v>
@@ -8110,19 +8110,19 @@
         <v>563411</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>525764</v>
+        <v>529003</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>601709</v>
+        <v>603809</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2683886367963262</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2504550347541238</v>
+        <v>0.2519975986799091</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.286632185091542</v>
+        <v>0.2876326417645748</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>208074</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>184685</v>
+        <v>184809</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>233895</v>
+        <v>234170</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2109949851647327</v>
+        <v>0.2109949851647328</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1872776351270403</v>
+        <v>0.1874034490673586</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2371791737629624</v>
+        <v>0.237457981708265</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>580</v>
@@ -8160,19 +8160,19 @@
         <v>362134</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>336998</v>
+        <v>336256</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>390271</v>
+        <v>390348</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3253437792051885</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.30276124595705</v>
+        <v>0.3020947028222641</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3506221353011019</v>
+        <v>0.3506907097036296</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>835</v>
@@ -8181,19 +8181,19 @@
         <v>570208</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>533374</v>
+        <v>534297</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>613162</v>
+        <v>609279</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2716263569945446</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.254080119583012</v>
+        <v>0.2545197382136621</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2920878437625711</v>
+        <v>0.2902383761868557</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>876132</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>817293</v>
+        <v>810540</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>939784</v>
+        <v>936462</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2492479542427429</v>
+        <v>0.249247954242743</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2325090559868551</v>
+        <v>0.2305877125686135</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2673559399644627</v>
+        <v>0.2664109721836591</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>982</v>
@@ -8306,19 +8306,19 @@
         <v>821751</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>774309</v>
+        <v>770173</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>871353</v>
+        <v>867586</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2211607834760499</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2083926596721994</v>
+        <v>0.2072794801754186</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.234510441095956</v>
+        <v>0.2334965118573533</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1663</v>
@@ -8327,19 +8327,19 @@
         <v>1697883</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1617672</v>
+        <v>1621322</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1786879</v>
+        <v>1786143</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2348149076917662</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2237218413344429</v>
+        <v>0.2242266373996024</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2471229029753605</v>
+        <v>0.2470210939122178</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>1035340</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>978928</v>
+        <v>978824</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1091577</v>
+        <v>1100628</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.2945405504381463</v>
+        <v>0.2945405504381464</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2784920417762127</v>
+        <v>0.2784623408411286</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3105390403713451</v>
+        <v>0.3131138756891494</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1167</v>
@@ -8377,19 +8377,19 @@
         <v>919883</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>873535</v>
+        <v>874328</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>966413</v>
+        <v>973074</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2475713143317676</v>
+        <v>0.2475713143317675</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2350976226015532</v>
+        <v>0.2353110657334796</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2600940626609912</v>
+        <v>0.2618868781139074</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2102</v>
@@ -8398,19 +8398,19 @@
         <v>1955223</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1882292</v>
+        <v>1880355</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2034667</v>
+        <v>2030782</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2704046495025108</v>
+        <v>0.2704046495025106</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2603184267976443</v>
+        <v>0.260050502377362</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2813915754461889</v>
+        <v>0.280854352723561</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>859854</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>803624</v>
+        <v>804969</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>919479</v>
+        <v>919850</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2446170950955898</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2286202458267225</v>
+        <v>0.2290028512422863</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2615796227323916</v>
+        <v>0.2616851894565106</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1285</v>
@@ -8448,19 +8448,19 @@
         <v>846931</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>806723</v>
+        <v>802426</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>891621</v>
+        <v>892490</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2279375312063922</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2171161313294228</v>
+        <v>0.2159596971672726</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2399651290803559</v>
+        <v>0.2401991228187858</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2165</v>
@@ -8469,19 +8469,19 @@
         <v>1706785</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1636105</v>
+        <v>1642163</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1776156</v>
+        <v>1779476</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2360460316708515</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2262710992144704</v>
+        <v>0.2271088687683216</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2456399039357385</v>
+        <v>0.2460990155917048</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>743776</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>699617</v>
+        <v>691521</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>791663</v>
+        <v>787524</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2115944002235209</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1990318071176179</v>
+        <v>0.1967285362591533</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2252175043496672</v>
+        <v>0.2240401249399002</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1897</v>
@@ -8519,19 +8519,19 @@
         <v>1127063</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1075508</v>
+        <v>1082715</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1170050</v>
+        <v>1179345</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3033303709857903</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2894554468143383</v>
+        <v>0.2913950628832184</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3148996357325343</v>
+        <v>0.3174012607880579</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2759</v>
@@ -8540,19 +8540,19 @@
         <v>1870839</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1808023</v>
+        <v>1800979</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1938892</v>
+        <v>1941183</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2587344111348715</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2500471021111381</v>
+        <v>0.2490728787982831</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2681461463154242</v>
+        <v>0.2684629070603896</v>
       </c>
     </row>
     <row r="28">
